--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Programming\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3975" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1130">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3421,6 +3421,30 @@
   </si>
   <si>
     <t>kiểm soát xem</t>
+  </si>
+  <si>
+    <t>reactionary</t>
+  </si>
+  <si>
+    <t>phản động</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>hông</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>tràn lan</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>đã đi (quá khứ của go)</t>
   </si>
 </sst>
 </file>
@@ -3468,7 +3492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3476,24 +3500,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3505,9 +3516,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3928,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:G551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="C544" sqref="C544"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="C542" sqref="C542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10378,7 +10386,7 @@
       </c>
       <c r="D528" s="3"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -10390,7 +10398,7 @@
       </c>
       <c r="D529" s="3"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -10402,7 +10410,7 @@
       </c>
       <c r="D530" s="3"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -10414,7 +10422,7 @@
       </c>
       <c r="D531" s="3"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -10426,7 +10434,7 @@
       </c>
       <c r="D532" s="3"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -10438,7 +10446,7 @@
       </c>
       <c r="D533" s="3"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -10450,7 +10458,7 @@
       </c>
       <c r="D534" s="3"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -10462,7 +10470,7 @@
       </c>
       <c r="D535" s="3"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -10474,7 +10482,7 @@
       </c>
       <c r="D536" s="3"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -10485,9 +10493,8 @@
         <v>133</v>
       </c>
       <c r="D537" s="3"/>
-      <c r="H537" s="5"/>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -10499,7 +10506,7 @@
       </c>
       <c r="D538" s="3"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -10511,7 +10518,7 @@
       </c>
       <c r="D539" s="3"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -10523,7 +10530,7 @@
       </c>
       <c r="D540" s="3"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -10535,7 +10542,7 @@
       </c>
       <c r="D541" s="3"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -10547,7 +10554,7 @@
       </c>
       <c r="D542" s="3"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -10559,7 +10566,7 @@
       </c>
       <c r="D543" s="3"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -10575,32 +10582,48 @@
       <c r="A545" s="1">
         <v>544</v>
       </c>
-      <c r="B545" s="3"/>
-      <c r="C545" s="3"/>
+      <c r="B545" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>1123</v>
+      </c>
       <c r="D545" s="3"/>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>545</v>
       </c>
-      <c r="B546" s="3"/>
-      <c r="C546" s="3"/>
+      <c r="B546" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>1125</v>
+      </c>
       <c r="D546" s="3"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>546</v>
       </c>
-      <c r="B547" s="3"/>
-      <c r="C547" s="3"/>
+      <c r="B547" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>1127</v>
+      </c>
       <c r="D547" s="3"/>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>547</v>
       </c>
-      <c r="B548" s="3"/>
-      <c r="C548" s="3"/>
+      <c r="B548" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1129</v>
+      </c>
       <c r="D548" s="3"/>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Programming\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1126">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3421,6 +3421,18 @@
   </si>
   <si>
     <t>kiểm soát xem</t>
+  </si>
+  <si>
+    <t>compatibility</t>
+  </si>
+  <si>
+    <t>khả năng tương thích</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>sức mạnh</t>
   </si>
 </sst>
 </file>
@@ -3931,7 +3943,7 @@
   <dimension ref="A1:H551"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="C544" sqref="C544"/>
+      <selection activeCell="C546" sqref="C546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10575,16 +10587,24 @@
       <c r="A545" s="1">
         <v>544</v>
       </c>
-      <c r="B545" s="3"/>
-      <c r="C545" s="3"/>
+      <c r="B545" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>1123</v>
+      </c>
       <c r="D545" s="3"/>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>545</v>
       </c>
-      <c r="B546" s="3"/>
-      <c r="C546" s="3"/>
+      <c r="B546" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>1125</v>
+      </c>
       <c r="D546" s="3"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1132">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3433,6 +3433,24 @@
   </si>
   <si>
     <t>sức mạnh</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>nhàn rỗi</t>
+  </si>
+  <si>
+    <t>Invincible </t>
+  </si>
+  <si>
+    <t>bất khả chiến bại</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>phiếu</t>
   </si>
 </sst>
 </file>
@@ -3942,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="C546" sqref="C546"/>
+    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="C549" sqref="C549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10611,24 +10629,36 @@
       <c r="A547" s="1">
         <v>546</v>
       </c>
-      <c r="B547" s="3"/>
-      <c r="C547" s="3"/>
+      <c r="B547" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>1127</v>
+      </c>
       <c r="D547" s="3"/>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>547</v>
       </c>
-      <c r="B548" s="3"/>
-      <c r="C548" s="3"/>
+      <c r="B548" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1129</v>
+      </c>
       <c r="D548" s="3"/>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>548</v>
       </c>
-      <c r="B549" s="3"/>
-      <c r="C549" s="3"/>
+      <c r="B549" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1131</v>
+      </c>
       <c r="D549" s="3"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1134">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3451,6 +3451,12 @@
   </si>
   <si>
     <t>phiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wizard </t>
+  </si>
+  <si>
+    <t>thầy pháp, thầy phù thủy</t>
   </si>
 </sst>
 </file>
@@ -3960,8 +3966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="C549" sqref="C549"/>
+    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="C550" sqref="C550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10665,8 +10671,12 @@
       <c r="A550" s="1">
         <v>549</v>
       </c>
-      <c r="B550" s="3"/>
-      <c r="C550" s="3"/>
+      <c r="B550" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>1133</v>
+      </c>
       <c r="D550" s="3"/>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="1138">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3457,6 +3457,18 @@
   </si>
   <si>
     <t>thầy pháp, thầy phù thủy</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>lịch trình</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>hành trình</t>
   </si>
 </sst>
 </file>
@@ -3677,8 +3689,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:D551" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:D551"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:D601" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:D601"/>
   <sortState ref="B2:D468">
     <sortCondition ref="B2:B468"/>
   </sortState>
@@ -3692,8 +3704,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:A551" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A551"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:A601" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A601"/>
   <tableColumns count="1">
     <tableColumn id="1" name="STT" dataDxfId="0"/>
   </tableColumns>
@@ -3964,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="C550" sqref="C550"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10683,9 +10695,417 @@
       <c r="A551" s="1">
         <v>550</v>
       </c>
-      <c r="B551" s="3"/>
-      <c r="C551" s="3"/>
+      <c r="B551" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1135</v>
+      </c>
       <c r="D551" s="3"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D552" s="3"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="B553" s="3"/>
+      <c r="C553" s="3"/>
+      <c r="D553" s="3"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554" s="3"/>
+      <c r="C554" s="3"/>
+      <c r="D554" s="3"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>554</v>
+      </c>
+      <c r="B555" s="3"/>
+      <c r="C555" s="3"/>
+      <c r="D555" s="3"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556" s="3"/>
+      <c r="C556" s="3"/>
+      <c r="D556" s="3"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557" s="3"/>
+      <c r="C557" s="3"/>
+      <c r="D557" s="3"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558" s="3"/>
+      <c r="C558" s="3"/>
+      <c r="D558" s="3"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="B559" s="3"/>
+      <c r="C559" s="3"/>
+      <c r="D559" s="3"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="B560" s="3"/>
+      <c r="C560" s="3"/>
+      <c r="D560" s="3"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>560</v>
+      </c>
+      <c r="B561" s="3"/>
+      <c r="C561" s="3"/>
+      <c r="D561" s="3"/>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="B562" s="3"/>
+      <c r="C562" s="3"/>
+      <c r="D562" s="3"/>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="B563" s="3"/>
+      <c r="C563" s="3"/>
+      <c r="D563" s="3"/>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="B564" s="3"/>
+      <c r="C564" s="3"/>
+      <c r="D564" s="3"/>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="B565" s="3"/>
+      <c r="C565" s="3"/>
+      <c r="D565" s="3"/>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="B566" s="3"/>
+      <c r="C566" s="3"/>
+      <c r="D566" s="3"/>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>566</v>
+      </c>
+      <c r="B567" s="3"/>
+      <c r="C567" s="3"/>
+      <c r="D567" s="3"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="B568" s="3"/>
+      <c r="C568" s="3"/>
+      <c r="D568" s="3"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="B569" s="3"/>
+      <c r="C569" s="3"/>
+      <c r="D569" s="3"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="B570" s="3"/>
+      <c r="C570" s="3"/>
+      <c r="D570" s="3"/>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="B571" s="3"/>
+      <c r="C571" s="3"/>
+      <c r="D571" s="3"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="B572" s="3"/>
+      <c r="C572" s="3"/>
+      <c r="D572" s="3"/>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>572</v>
+      </c>
+      <c r="B573" s="3"/>
+      <c r="C573" s="3"/>
+      <c r="D573" s="3"/>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="B574" s="3"/>
+      <c r="C574" s="3"/>
+      <c r="D574" s="3"/>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>574</v>
+      </c>
+      <c r="B575" s="3"/>
+      <c r="C575" s="3"/>
+      <c r="D575" s="3"/>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>575</v>
+      </c>
+      <c r="B576" s="3"/>
+      <c r="C576" s="3"/>
+      <c r="D576" s="3"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>576</v>
+      </c>
+      <c r="B577" s="3"/>
+      <c r="C577" s="3"/>
+      <c r="D577" s="3"/>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="B578" s="3"/>
+      <c r="C578" s="3"/>
+      <c r="D578" s="3"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>578</v>
+      </c>
+      <c r="B579" s="3"/>
+      <c r="C579" s="3"/>
+      <c r="D579" s="3"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="B580" s="3"/>
+      <c r="C580" s="3"/>
+      <c r="D580" s="3"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="B581" s="3"/>
+      <c r="C581" s="3"/>
+      <c r="D581" s="3"/>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+      <c r="B582" s="3"/>
+      <c r="C582" s="3"/>
+      <c r="D582" s="3"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="B583" s="3"/>
+      <c r="C583" s="3"/>
+      <c r="D583" s="3"/>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" s="3"/>
+      <c r="C584" s="3"/>
+      <c r="D584" s="3"/>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="B585" s="3"/>
+      <c r="C585" s="3"/>
+      <c r="D585" s="3"/>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="3"/>
+      <c r="C586" s="3"/>
+      <c r="D586" s="3"/>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>586</v>
+      </c>
+      <c r="B587" s="3"/>
+      <c r="C587" s="3"/>
+      <c r="D587" s="3"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="B588" s="3"/>
+      <c r="C588" s="3"/>
+      <c r="D588" s="3"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>588</v>
+      </c>
+      <c r="B589" s="3"/>
+      <c r="C589" s="3"/>
+      <c r="D589" s="3"/>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="B590" s="3"/>
+      <c r="C590" s="3"/>
+      <c r="D590" s="3"/>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>590</v>
+      </c>
+      <c r="B591" s="3"/>
+      <c r="C591" s="3"/>
+      <c r="D591" s="3"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="B592" s="3"/>
+      <c r="C592" s="3"/>
+      <c r="D592" s="3"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>592</v>
+      </c>
+      <c r="B593" s="3"/>
+      <c r="C593" s="3"/>
+      <c r="D593" s="3"/>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>593</v>
+      </c>
+      <c r="B594" s="3"/>
+      <c r="C594" s="3"/>
+      <c r="D594" s="3"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>594</v>
+      </c>
+      <c r="B595" s="3"/>
+      <c r="C595" s="3"/>
+      <c r="D595" s="3"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="B596" s="3"/>
+      <c r="C596" s="3"/>
+      <c r="D596" s="3"/>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>596</v>
+      </c>
+      <c r="B597" s="3"/>
+      <c r="C597" s="3"/>
+      <c r="D597" s="3"/>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="B598" s="3"/>
+      <c r="C598" s="3"/>
+      <c r="D598" s="3"/>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>598</v>
+      </c>
+      <c r="B599" s="3"/>
+      <c r="C599" s="3"/>
+      <c r="D599" s="3"/>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>599</v>
+      </c>
+      <c r="B600" s="3"/>
+      <c r="C600" s="3"/>
+      <c r="D600" s="3"/>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>600</v>
+      </c>
+      <c r="B601" s="3"/>
+      <c r="C601" s="3"/>
+      <c r="D601" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1142">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3469,6 +3469,18 @@
   </si>
   <si>
     <t>hành trình</t>
+  </si>
+  <si>
+    <t>spector</t>
+  </si>
+  <si>
+    <t>người hướng dẫn</t>
+  </si>
+  <si>
+    <t>spectator</t>
+  </si>
+  <si>
+    <t>khán giả</t>
   </si>
 </sst>
 </file>
@@ -3978,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
       <selection activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
@@ -10719,16 +10731,24 @@
       <c r="A553" s="1">
         <v>552</v>
       </c>
-      <c r="B553" s="3"/>
-      <c r="C553" s="3"/>
+      <c r="B553" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>1139</v>
+      </c>
       <c r="D553" s="3"/>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>553</v>
       </c>
-      <c r="B554" s="3"/>
-      <c r="C554" s="3"/>
+      <c r="B554" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1141</v>
+      </c>
       <c r="D554" s="3"/>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -3990,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="C554" sqref="C554"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="1144">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3481,6 +3481,12 @@
   </si>
   <si>
     <t>khán giả</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>tệp âm thanh</t>
   </si>
 </sst>
 </file>
@@ -3990,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="B556" sqref="B556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10755,8 +10761,12 @@
       <c r="A555" s="1">
         <v>554</v>
       </c>
-      <c r="B555" s="3"/>
-      <c r="C555" s="3"/>
+      <c r="B555" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>1143</v>
+      </c>
       <c r="D555" s="3"/>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1146">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3487,6 +3487,12 @@
   </si>
   <si>
     <t>tệp âm thanh</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>liên tục</t>
   </si>
 </sst>
 </file>
@@ -3997,7 +4003,7 @@
   <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="B556" sqref="B556"/>
+      <selection activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10773,8 +10779,12 @@
       <c r="A556" s="1">
         <v>555</v>
       </c>
-      <c r="B556" s="3"/>
-      <c r="C556" s="3"/>
+      <c r="B556" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1145</v>
+      </c>
       <c r="D556" s="3"/>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1148">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3493,6 +3493,12 @@
   </si>
   <si>
     <t>liên tục</t>
+  </si>
+  <si>
+    <t>modal</t>
+  </si>
+  <si>
+    <t>phương thức</t>
   </si>
 </sst>
 </file>
@@ -4002,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="C554" sqref="C554"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="C544" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10791,8 +10797,12 @@
       <c r="A557" s="1">
         <v>556</v>
       </c>
-      <c r="B557" s="3"/>
-      <c r="C557" s="3"/>
+      <c r="B557" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1147</v>
+      </c>
       <c r="D557" s="3"/>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1149">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3499,6 +3499,9 @@
   </si>
   <si>
     <t>phương thức</t>
+  </si>
+  <si>
+    <t>mutable</t>
   </si>
 </sst>
 </file>
@@ -4008,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="C544" sqref="C544"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="C558" sqref="C558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10809,8 +10812,12 @@
       <c r="A558" s="1">
         <v>557</v>
       </c>
-      <c r="B558" s="3"/>
-      <c r="C558" s="3"/>
+      <c r="B558" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>694</v>
+      </c>
       <c r="D558" s="3"/>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1161">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -3502,6 +3502,42 @@
   </si>
   <si>
     <t>mutable</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>khởi hành</t>
+  </si>
+  <si>
+    <t>credential</t>
+  </si>
+  <si>
+    <t>chứng chỉ</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>đau lòng</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>đau</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>thu được</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>khởi hành, ra đi</t>
   </si>
 </sst>
 </file>
@@ -4011,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="C558" sqref="C558"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="C567" sqref="C567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10824,48 +10860,72 @@
       <c r="A559" s="1">
         <v>558</v>
       </c>
-      <c r="B559" s="3"/>
-      <c r="C559" s="3"/>
+      <c r="B559" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>1150</v>
+      </c>
       <c r="D559" s="3"/>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>559</v>
       </c>
-      <c r="B560" s="3"/>
-      <c r="C560" s="3"/>
+      <c r="B560" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>1152</v>
+      </c>
       <c r="D560" s="3"/>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>560</v>
       </c>
-      <c r="B561" s="3"/>
-      <c r="C561" s="3"/>
+      <c r="B561" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>1154</v>
+      </c>
       <c r="D561" s="3"/>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>561</v>
       </c>
-      <c r="B562" s="3"/>
-      <c r="C562" s="3"/>
+      <c r="B562" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>1156</v>
+      </c>
       <c r="D562" s="3"/>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>562</v>
       </c>
-      <c r="B563" s="3"/>
-      <c r="C563" s="3"/>
+      <c r="B563" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>1158</v>
+      </c>
       <c r="D563" s="3"/>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>563</v>
       </c>
-      <c r="B564" s="3"/>
-      <c r="C564" s="3"/>
+      <c r="B564" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>1160</v>
+      </c>
       <c r="D564" s="3"/>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="1164">
   <si>
     <t>ràng buộc</t>
   </si>
@@ -1050,9 +1050,6 @@
   </si>
   <si>
     <t>initial</t>
-  </si>
-  <si>
-    <t>cho biết, nói ngắn gọn</t>
   </si>
   <si>
     <t>indicate</t>
@@ -3538,6 +3535,18 @@
   </si>
   <si>
     <t>khởi hành, ra đi</t>
+  </si>
+  <si>
+    <t>exclusion</t>
+  </si>
+  <si>
+    <t>stash</t>
+  </si>
+  <si>
+    <t>cất giữ</t>
+  </si>
+  <si>
+    <t>cho biết, nói ngắn gọn; biểu hiện, biểu thị</t>
   </si>
 </sst>
 </file>
@@ -4047,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="C567" sqref="C567"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -4064,16 +4073,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4081,10 +4090,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -4093,10 +4102,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -4105,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -4117,10 +4126,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -4129,10 +4138,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -4141,10 +4150,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -4153,10 +4162,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -4165,10 +4174,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -4177,10 +4186,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -4189,10 +4198,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -4201,10 +4210,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -4213,10 +4222,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -4225,10 +4234,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -4237,10 +4246,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>941</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>942</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -4249,10 +4258,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -4261,10 +4270,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -4273,10 +4282,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -4285,10 +4294,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -4297,10 +4306,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -4309,10 +4318,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -4321,10 +4330,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>909</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -4333,10 +4342,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>916</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -4345,10 +4354,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -4357,10 +4366,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -4369,10 +4378,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -4381,10 +4390,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -4393,13 +4402,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,10 +4416,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -4419,10 +4428,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -4431,10 +4440,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D31" s="3"/>
     </row>
@@ -4443,10 +4452,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D32" s="3"/>
     </row>
@@ -4455,13 +4464,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,10 +4478,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -4481,10 +4490,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>733</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -4493,10 +4502,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -4505,10 +4514,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -4517,10 +4526,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>965</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>966</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -4529,10 +4538,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="D39" s="3"/>
     </row>
@@ -4541,10 +4550,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D40" s="3"/>
     </row>
@@ -4553,10 +4562,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D41" s="3"/>
     </row>
@@ -4565,10 +4574,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D42" s="3"/>
     </row>
@@ -4577,10 +4586,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -4589,10 +4598,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -4601,10 +4610,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -4613,10 +4622,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D46" s="3"/>
     </row>
@@ -4625,10 +4634,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -4637,10 +4646,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D48" s="3"/>
     </row>
@@ -4649,10 +4658,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D49" s="3"/>
     </row>
@@ -4661,10 +4670,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D50" s="3"/>
     </row>
@@ -4673,10 +4682,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D51" s="3"/>
     </row>
@@ -4685,10 +4694,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -4697,13 +4706,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>768</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,10 +4720,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -4723,13 +4732,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4737,10 +4746,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D56" s="3"/>
     </row>
@@ -4749,10 +4758,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -4761,10 +4770,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="D58" s="3"/>
     </row>
@@ -4773,10 +4782,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D59" s="3"/>
     </row>
@@ -4785,10 +4794,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>661</v>
       </c>
       <c r="D60" s="3"/>
     </row>
@@ -4797,10 +4806,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -4809,10 +4818,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D62" s="3"/>
     </row>
@@ -4821,10 +4830,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D63" s="3"/>
     </row>
@@ -4833,10 +4842,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>764</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -4845,10 +4854,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -4857,10 +4866,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -4869,10 +4878,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -4881,13 +4890,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4895,10 +4904,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>719</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -4907,10 +4916,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -4919,13 +4928,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>855</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4933,10 +4942,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>709</v>
       </c>
       <c r="D72" s="3"/>
     </row>
@@ -4945,10 +4954,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>888</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -4957,10 +4966,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D74" s="3"/>
     </row>
@@ -4969,10 +4978,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D75" s="3"/>
     </row>
@@ -4981,10 +4990,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D76" s="3"/>
     </row>
@@ -4993,10 +5002,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D77" s="3"/>
     </row>
@@ -5005,10 +5014,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D78" s="3"/>
     </row>
@@ -5017,10 +5026,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>721</v>
       </c>
       <c r="D79" s="3"/>
     </row>
@@ -5029,10 +5038,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D80" s="3"/>
     </row>
@@ -5041,10 +5050,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D81" s="3"/>
     </row>
@@ -5053,10 +5062,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="D82" s="3"/>
     </row>
@@ -5065,10 +5074,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D83" s="3"/>
     </row>
@@ -5077,13 +5086,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,10 +5100,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D85" s="3"/>
     </row>
@@ -5103,10 +5112,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D86" s="3"/>
     </row>
@@ -5115,10 +5124,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>610</v>
       </c>
       <c r="D87" s="3"/>
     </row>
@@ -5139,10 +5148,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D89" s="3"/>
     </row>
@@ -5151,10 +5160,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D90" s="3"/>
     </row>
@@ -5163,10 +5172,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D91" s="3"/>
     </row>
@@ -5175,13 +5184,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,10 +5198,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D93" s="3"/>
     </row>
@@ -5201,10 +5210,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D94" s="3"/>
     </row>
@@ -5213,10 +5222,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="D95" s="3"/>
     </row>
@@ -5225,10 +5234,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D96" s="3"/>
     </row>
@@ -5237,10 +5246,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>917</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>918</v>
       </c>
       <c r="D97" s="3"/>
     </row>
@@ -5249,10 +5258,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D98" s="3"/>
     </row>
@@ -5261,10 +5270,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D99" s="3"/>
     </row>
@@ -5273,10 +5282,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D100" s="3"/>
     </row>
@@ -5285,10 +5294,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D101" s="3"/>
     </row>
@@ -5297,10 +5306,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D102" s="3"/>
     </row>
@@ -5309,10 +5318,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D103" s="3"/>
     </row>
@@ -5321,13 +5330,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>757</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5335,13 +5344,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,10 +5358,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D106" s="3"/>
     </row>
@@ -5361,13 +5370,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,10 +5384,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D108" s="3"/>
     </row>
@@ -5387,10 +5396,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>869</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>870</v>
       </c>
       <c r="D109" s="3"/>
     </row>
@@ -5399,10 +5408,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>868</v>
       </c>
       <c r="D110" s="3"/>
     </row>
@@ -5411,10 +5420,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D111" s="3"/>
     </row>
@@ -5423,10 +5432,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D112" s="3"/>
     </row>
@@ -5435,10 +5444,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D113" s="3"/>
     </row>
@@ -5447,10 +5456,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>725</v>
       </c>
       <c r="D114" s="3"/>
     </row>
@@ -5459,7 +5468,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>159</v>
@@ -5471,10 +5480,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>920</v>
       </c>
       <c r="D116" s="3"/>
     </row>
@@ -5483,13 +5492,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5497,10 +5506,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D118" s="3"/>
     </row>
@@ -5509,10 +5518,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>663</v>
       </c>
       <c r="D119" s="3"/>
     </row>
@@ -5521,10 +5530,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D120" s="3"/>
     </row>
@@ -5533,10 +5542,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D121" s="3"/>
     </row>
@@ -5545,10 +5554,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D122" s="3"/>
     </row>
@@ -5557,10 +5566,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D123" s="3"/>
     </row>
@@ -5569,10 +5578,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D124" s="3"/>
     </row>
@@ -5581,10 +5590,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D125" s="3"/>
     </row>
@@ -5593,10 +5602,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>831</v>
       </c>
       <c r="D126" s="3"/>
     </row>
@@ -5605,10 +5614,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>925</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>926</v>
       </c>
       <c r="D127" s="3"/>
     </row>
@@ -5617,10 +5626,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D128" s="3"/>
     </row>
@@ -5629,10 +5638,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D129" s="3"/>
     </row>
@@ -5641,10 +5650,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>922</v>
       </c>
       <c r="D130" s="3"/>
     </row>
@@ -5653,10 +5662,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="D131" s="3"/>
     </row>
@@ -5665,10 +5674,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D132" s="3"/>
     </row>
@@ -5677,10 +5686,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D133" s="3"/>
     </row>
@@ -5689,10 +5698,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="D134" s="3"/>
     </row>
@@ -5701,10 +5710,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D135" s="3"/>
     </row>
@@ -5713,10 +5722,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D136" s="3"/>
     </row>
@@ -5725,10 +5734,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="D137" s="3"/>
     </row>
@@ -5737,7 +5746,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>291</v>
@@ -5749,10 +5758,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D139" s="3"/>
     </row>
@@ -5761,13 +5770,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,10 +5784,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D141" s="3"/>
     </row>
@@ -5787,10 +5796,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D142" s="3"/>
     </row>
@@ -5799,10 +5808,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="D143" s="3"/>
     </row>
@@ -5811,10 +5820,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="D144" s="3"/>
     </row>
@@ -5823,10 +5832,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D145" s="3"/>
     </row>
@@ -5835,10 +5844,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>937</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>938</v>
       </c>
       <c r="D146" s="3"/>
     </row>
@@ -5847,10 +5856,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>936</v>
       </c>
       <c r="D147" s="3"/>
     </row>
@@ -5859,10 +5868,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>934</v>
       </c>
       <c r="D148" s="3"/>
     </row>
@@ -5871,10 +5880,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D149" s="3"/>
     </row>
@@ -5883,10 +5892,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>645</v>
       </c>
       <c r="D150" s="3"/>
     </row>
@@ -5895,10 +5904,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D151" s="3"/>
     </row>
@@ -5907,10 +5916,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D152" s="3"/>
     </row>
@@ -5919,10 +5928,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="D153" s="3"/>
     </row>
@@ -5931,10 +5940,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D154" s="3"/>
     </row>
@@ -5943,10 +5952,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D155" s="3"/>
     </row>
@@ -5955,10 +5964,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D156" s="3"/>
     </row>
@@ -5967,10 +5976,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D157" s="3"/>
     </row>
@@ -5979,10 +5988,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="D158" s="3"/>
     </row>
@@ -5991,10 +6000,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D159" s="3"/>
     </row>
@@ -6003,10 +6012,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D160" s="3"/>
     </row>
@@ -6015,10 +6024,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>907</v>
       </c>
       <c r="D161" s="3"/>
     </row>
@@ -6027,10 +6036,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D162" s="3"/>
     </row>
@@ -6039,10 +6048,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D163" s="3"/>
     </row>
@@ -6051,10 +6060,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D164" s="3"/>
     </row>
@@ -6063,10 +6072,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D165" s="3"/>
     </row>
@@ -6075,10 +6084,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D166" s="3"/>
     </row>
@@ -6087,10 +6096,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D167" s="3"/>
     </row>
@@ -6099,10 +6108,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D168" s="3"/>
     </row>
@@ -6111,10 +6120,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D169" s="3"/>
     </row>
@@ -6123,13 +6132,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>811</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -6137,10 +6146,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D171" s="3"/>
     </row>
@@ -6149,10 +6158,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D172" s="3"/>
     </row>
@@ -6161,10 +6170,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D173" s="3"/>
     </row>
@@ -6173,10 +6182,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D174" s="3"/>
     </row>
@@ -6185,10 +6194,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D175" s="3"/>
     </row>
@@ -6197,10 +6206,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D176" s="3"/>
     </row>
@@ -6209,13 +6218,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>851</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,10 +6232,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>723</v>
       </c>
       <c r="D178" s="3"/>
     </row>
@@ -6235,10 +6244,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D179" s="3"/>
     </row>
@@ -6247,10 +6256,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D180" s="3"/>
     </row>
@@ -6259,10 +6268,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D181" s="3"/>
     </row>
@@ -6271,10 +6280,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D182" s="3"/>
     </row>
@@ -6283,10 +6292,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D183" s="3"/>
     </row>
@@ -6295,10 +6304,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D184" s="3"/>
     </row>
@@ -6307,13 +6316,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,10 +6330,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="D186" s="3"/>
     </row>
@@ -6333,10 +6342,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D187" s="3"/>
     </row>
@@ -6345,10 +6354,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D188" s="3"/>
     </row>
@@ -6357,10 +6366,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>809</v>
       </c>
       <c r="D189" s="3"/>
     </row>
@@ -6369,10 +6378,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>696</v>
       </c>
       <c r="D190" s="3"/>
     </row>
@@ -6381,10 +6390,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D191" s="3"/>
     </row>
@@ -6393,13 +6402,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="D192" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6407,13 +6416,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6421,10 +6430,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D194" s="3"/>
     </row>
@@ -6433,10 +6442,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>967</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>968</v>
       </c>
       <c r="D195" s="3"/>
     </row>
@@ -6445,10 +6454,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D196" s="3"/>
     </row>
@@ -6457,10 +6466,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>807</v>
       </c>
       <c r="D197" s="3"/>
     </row>
@@ -6469,10 +6478,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>690</v>
       </c>
       <c r="D198" s="3"/>
     </row>
@@ -6481,10 +6490,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D199" s="3"/>
     </row>
@@ -6493,10 +6502,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D200" s="3"/>
     </row>
@@ -6505,10 +6514,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D201" s="3"/>
     </row>
@@ -6517,10 +6526,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D202" s="3"/>
     </row>
@@ -6529,10 +6538,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D203" s="3"/>
     </row>
@@ -6541,10 +6550,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D204" s="3"/>
     </row>
@@ -6553,10 +6562,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D205" s="3"/>
     </row>
@@ -6565,10 +6574,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>735</v>
       </c>
       <c r="D206" s="3"/>
     </row>
@@ -6577,13 +6586,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="D207" s="3" t="s">
         <v>872</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6591,10 +6600,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D208" s="3"/>
     </row>
@@ -6603,10 +6612,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>342</v>
+        <v>1163</v>
       </c>
       <c r="D209" s="3"/>
     </row>
@@ -6615,10 +6624,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="D210" s="3"/>
     </row>
@@ -6639,7 +6648,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>339</v>
@@ -6666,7 +6675,7 @@
         <v>336</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D214" s="3"/>
     </row>
@@ -6678,7 +6687,7 @@
         <v>335</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D215" s="3"/>
     </row>
@@ -6687,10 +6696,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>692</v>
       </c>
       <c r="D216" s="3"/>
     </row>
@@ -6723,10 +6732,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="D219" s="3"/>
     </row>
@@ -6741,7 +6750,7 @@
         <v>329</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6773,10 +6782,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="D223" s="3"/>
     </row>
@@ -6821,10 +6830,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="D227" s="3"/>
     </row>
@@ -6833,13 +6842,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="D228" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6871,10 +6880,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>953</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>954</v>
       </c>
       <c r="D231" s="3"/>
     </row>
@@ -6883,13 +6892,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="D232" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6921,10 +6930,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="D235" s="3"/>
     </row>
@@ -6933,10 +6942,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="D236" s="3"/>
     </row>
@@ -6993,10 +7002,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>897</v>
       </c>
       <c r="D241" s="3"/>
     </row>
@@ -7017,10 +7026,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="D243" s="3"/>
     </row>
@@ -7065,10 +7074,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>846</v>
       </c>
       <c r="D247" s="3"/>
     </row>
@@ -7113,10 +7122,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>930</v>
       </c>
       <c r="D251" s="3"/>
     </row>
@@ -7167,7 +7176,7 @@
         <v>281</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -7187,13 +7196,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C257" s="3" t="s">
-        <v>676</v>
-      </c>
       <c r="D257" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -7201,10 +7210,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>932</v>
       </c>
       <c r="D258" s="3"/>
     </row>
@@ -7237,10 +7246,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="D261" s="3"/>
     </row>
@@ -7261,10 +7270,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="D263" s="3"/>
     </row>
@@ -7273,10 +7282,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>894</v>
       </c>
       <c r="D264" s="3"/>
     </row>
@@ -7285,10 +7294,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>608</v>
       </c>
       <c r="D265" s="3"/>
     </row>
@@ -7297,10 +7306,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>606</v>
       </c>
       <c r="D266" s="3"/>
     </row>
@@ -7309,10 +7318,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>694</v>
       </c>
       <c r="D267" s="3"/>
     </row>
@@ -7381,10 +7390,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>969</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>970</v>
       </c>
       <c r="D273" s="3"/>
     </row>
@@ -7393,10 +7402,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="D274" s="3"/>
     </row>
@@ -7405,7 +7414,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>89</v>
@@ -7465,10 +7474,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>884</v>
       </c>
       <c r="D280" s="3"/>
     </row>
@@ -7513,13 +7522,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C284" s="3" t="s">
-        <v>745</v>
-      </c>
       <c r="D284" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,13 +7548,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -7577,10 +7586,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="D289" s="3"/>
     </row>
@@ -7589,10 +7598,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>903</v>
       </c>
       <c r="D290" s="3"/>
     </row>
@@ -7625,10 +7634,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>914</v>
       </c>
       <c r="D293" s="3"/>
     </row>
@@ -7649,13 +7658,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="D295" s="3" t="s">
         <v>823</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -7675,10 +7684,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="D297" s="3"/>
     </row>
@@ -7699,10 +7708,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="D299" s="3"/>
     </row>
@@ -7711,13 +7720,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C300" s="3" t="s">
-        <v>737</v>
-      </c>
       <c r="D300" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7749,10 +7758,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>952</v>
       </c>
       <c r="D303" s="3"/>
     </row>
@@ -7773,10 +7782,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="D305" s="3"/>
     </row>
@@ -7821,13 +7830,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="D309" s="3" t="s">
         <v>820</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7835,10 +7844,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D310" s="3"/>
     </row>
@@ -7859,10 +7868,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>956</v>
       </c>
       <c r="D312" s="3"/>
     </row>
@@ -7871,10 +7880,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>960</v>
       </c>
       <c r="D313" s="3"/>
     </row>
@@ -8075,7 +8084,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>190</v>
@@ -8087,13 +8096,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>713</v>
-      </c>
       <c r="D331" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -8173,13 +8182,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>715</v>
-      </c>
       <c r="D338" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -8223,13 +8232,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -8285,10 +8294,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C347" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="D347" s="3"/>
     </row>
@@ -8297,13 +8306,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C348" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="D348" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -8335,13 +8344,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="D351" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -8349,10 +8358,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="D352" s="3"/>
     </row>
@@ -8361,10 +8370,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="D353" s="3"/>
     </row>
@@ -8373,10 +8382,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="D354" s="3"/>
     </row>
@@ -8397,10 +8406,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="D356" s="3"/>
     </row>
@@ -8481,13 +8490,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="D363" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -8495,10 +8504,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="D364" s="3"/>
     </row>
@@ -8507,10 +8516,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>649</v>
       </c>
       <c r="D365" s="3"/>
     </row>
@@ -8555,10 +8564,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C369" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>945</v>
       </c>
       <c r="D369" s="3"/>
     </row>
@@ -8567,10 +8576,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>957</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>958</v>
       </c>
       <c r="D370" s="3"/>
     </row>
@@ -8579,13 +8588,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C371" s="3" t="s">
-        <v>743</v>
-      </c>
       <c r="D371" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -8593,10 +8602,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C372" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>682</v>
       </c>
       <c r="D372" s="3"/>
     </row>
@@ -8605,13 +8614,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="D373" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -8655,10 +8664,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C377" s="3" t="s">
         <v>961</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>962</v>
       </c>
       <c r="D377" s="3"/>
     </row>
@@ -8667,13 +8676,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="D378" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -8681,13 +8690,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C379" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C379" s="3" t="s">
-        <v>777</v>
-      </c>
       <c r="D379" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -8743,10 +8752,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D384" s="3"/>
     </row>
@@ -8809,7 +8818,7 @@
         <v>116</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -8883,7 +8892,7 @@
         <v>103</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -8903,10 +8912,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="D397" s="3"/>
     </row>
@@ -8915,10 +8924,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="D398" s="3"/>
     </row>
@@ -9047,10 +9056,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="D409" s="3"/>
     </row>
@@ -9071,13 +9080,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D411" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -9169,10 +9178,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C419" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>964</v>
       </c>
       <c r="D419" s="3"/>
     </row>
@@ -9181,10 +9190,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C420" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>924</v>
       </c>
       <c r="D420" s="3"/>
     </row>
@@ -9193,10 +9202,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="D421" s="3"/>
     </row>
@@ -9229,13 +9238,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="C424" s="3" t="s">
+      <c r="D424" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -9243,10 +9252,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>618</v>
       </c>
       <c r="D425" s="3"/>
     </row>
@@ -9267,13 +9276,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D427" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -9365,10 +9374,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C435" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>688</v>
       </c>
       <c r="D435" s="3"/>
     </row>
@@ -9377,10 +9386,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C436" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="D436" s="3"/>
     </row>
@@ -9449,13 +9458,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -9475,10 +9484,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C444" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>833</v>
       </c>
       <c r="D444" s="3"/>
     </row>
@@ -9487,10 +9496,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>647</v>
       </c>
       <c r="D445" s="3"/>
     </row>
@@ -9499,10 +9508,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C446" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>892</v>
       </c>
       <c r="D446" s="3"/>
     </row>
@@ -9511,10 +9520,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>612</v>
       </c>
       <c r="D447" s="3"/>
     </row>
@@ -9523,10 +9532,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>702</v>
       </c>
       <c r="D448" s="3"/>
     </row>
@@ -9547,13 +9556,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="C450" s="3" t="s">
+      <c r="D450" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -9585,10 +9594,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C453" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>624</v>
       </c>
       <c r="D453" s="3"/>
     </row>
@@ -9669,10 +9678,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C460" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="C460" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="D460" s="3"/>
     </row>
@@ -9681,10 +9690,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D461" s="3"/>
     </row>
@@ -9753,11 +9762,11 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -9765,10 +9774,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C468" s="3" t="s">
         <v>972</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>973</v>
       </c>
       <c r="D468" s="3"/>
     </row>
@@ -9777,10 +9786,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C469" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="D469" s="3"/>
     </row>
@@ -9789,10 +9798,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>976</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>977</v>
       </c>
       <c r="D470" s="3"/>
     </row>
@@ -9801,7 +9810,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>331</v>
@@ -9813,10 +9822,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>979</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>980</v>
       </c>
       <c r="D472" s="3"/>
     </row>
@@ -9825,10 +9834,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C473" s="3" t="s">
         <v>981</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>982</v>
       </c>
       <c r="D473" s="3"/>
     </row>
@@ -9837,10 +9846,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D474" s="3"/>
     </row>
@@ -9849,10 +9858,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>984</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>985</v>
       </c>
       <c r="D475" s="3"/>
     </row>
@@ -9861,10 +9870,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D476" s="3"/>
     </row>
@@ -9873,10 +9882,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D477" s="3"/>
     </row>
@@ -9885,10 +9894,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C478" s="3" t="s">
         <v>989</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>990</v>
       </c>
       <c r="D478" s="3"/>
     </row>
@@ -9897,10 +9906,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C479" s="3" t="s">
         <v>993</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>994</v>
       </c>
       <c r="D479" s="3"/>
     </row>
@@ -9909,10 +9918,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C480" s="3" t="s">
         <v>995</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>996</v>
       </c>
       <c r="D480" s="3"/>
     </row>
@@ -9921,10 +9930,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C481" s="3" t="s">
         <v>997</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>998</v>
       </c>
       <c r="D481" s="3"/>
     </row>
@@ -9933,10 +9942,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D482" s="3"/>
     </row>
@@ -9945,10 +9954,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C483" s="3" t="s">
         <v>1000</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>1001</v>
       </c>
       <c r="D483" s="3"/>
     </row>
@@ -9957,10 +9966,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C484" s="3" t="s">
         <v>1002</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>1003</v>
       </c>
       <c r="D484" s="3"/>
     </row>
@@ -9969,10 +9978,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C485" s="3" t="s">
         <v>1004</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>1005</v>
       </c>
       <c r="D485" s="3"/>
     </row>
@@ -9981,10 +9990,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C486" s="3" t="s">
         <v>1006</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>1007</v>
       </c>
       <c r="D486" s="3"/>
     </row>
@@ -9993,10 +10002,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="D487" s="3"/>
     </row>
@@ -10005,10 +10014,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C488" s="3" t="s">
         <v>1010</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>1011</v>
       </c>
       <c r="D488" s="3"/>
     </row>
@@ -10017,10 +10026,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C489" s="3" t="s">
         <v>1012</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>1013</v>
       </c>
       <c r="D489" s="3"/>
     </row>
@@ -10029,10 +10038,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C490" s="3" t="s">
         <v>1014</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>1015</v>
       </c>
       <c r="D490" s="3"/>
     </row>
@@ -10041,10 +10050,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C491" s="3" t="s">
         <v>1016</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>1017</v>
       </c>
       <c r="D491" s="3"/>
     </row>
@@ -10053,10 +10062,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="D492" s="3"/>
     </row>
@@ -10065,10 +10074,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C493" s="3" t="s">
         <v>1020</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>1021</v>
       </c>
       <c r="D493" s="3"/>
     </row>
@@ -10077,10 +10086,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>1022</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>1023</v>
       </c>
       <c r="D494" s="3"/>
     </row>
@@ -10089,10 +10098,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C495" s="3" t="s">
         <v>1025</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>1026</v>
       </c>
       <c r="D495" s="3"/>
     </row>
@@ -10101,10 +10110,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>1027</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>1028</v>
       </c>
       <c r="D496" s="3"/>
     </row>
@@ -10113,7 +10122,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>337</v>
@@ -10125,10 +10134,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C498" s="3" t="s">
         <v>1030</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>1031</v>
       </c>
       <c r="D498" s="3"/>
     </row>
@@ -10137,10 +10146,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C499" s="3" t="s">
         <v>1032</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>1033</v>
       </c>
       <c r="D499" s="3"/>
     </row>
@@ -10149,10 +10158,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>1035</v>
       </c>
       <c r="D500" s="3"/>
     </row>
@@ -10161,10 +10170,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C501" s="3" t="s">
         <v>1036</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>1037</v>
       </c>
       <c r="D501" s="3"/>
     </row>
@@ -10173,10 +10182,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C502" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>1039</v>
       </c>
       <c r="D502" s="3"/>
     </row>
@@ -10185,10 +10194,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C503" s="3" t="s">
         <v>1040</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>1041</v>
       </c>
       <c r="D503" s="3"/>
     </row>
@@ -10197,10 +10206,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C504" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>1043</v>
       </c>
       <c r="D504" s="3"/>
     </row>
@@ -10209,10 +10218,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C505" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>1045</v>
       </c>
       <c r="D505" s="3"/>
       <c r="G505" s="4"/>
@@ -10222,10 +10231,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C506" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>1047</v>
       </c>
       <c r="D506" s="3"/>
     </row>
@@ -10234,10 +10243,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C507" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>1049</v>
       </c>
       <c r="D507" s="3"/>
     </row>
@@ -10246,10 +10255,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C508" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>1051</v>
       </c>
       <c r="D508" s="3"/>
     </row>
@@ -10258,10 +10267,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C509" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>1053</v>
       </c>
       <c r="D509" s="3"/>
     </row>
@@ -10270,10 +10279,10 @@
         <v>509</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D510" s="3"/>
     </row>
@@ -10282,10 +10291,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C511" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>1057</v>
       </c>
       <c r="D511" s="3"/>
     </row>
@@ -10294,10 +10303,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>1058</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>1059</v>
       </c>
       <c r="D512" s="3"/>
     </row>
@@ -10306,10 +10315,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C513" s="3" t="s">
         <v>1060</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>1061</v>
       </c>
       <c r="D513" s="3"/>
     </row>
@@ -10318,10 +10327,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C514" s="3" t="s">
         <v>1062</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>1063</v>
       </c>
       <c r="D514" s="3"/>
     </row>
@@ -10330,10 +10339,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C515" s="3" t="s">
         <v>1064</v>
-      </c>
-      <c r="C515" s="3" t="s">
-        <v>1065</v>
       </c>
       <c r="D515" s="3"/>
     </row>
@@ -10342,10 +10351,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>1066</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>1067</v>
       </c>
       <c r="D516" s="3"/>
     </row>
@@ -10354,10 +10363,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D517" s="3"/>
     </row>
@@ -10366,10 +10375,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D518" s="3"/>
     </row>
@@ -10378,10 +10387,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C519" s="3" t="s">
         <v>1070</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>1071</v>
       </c>
       <c r="D519" s="3"/>
     </row>
@@ -10390,10 +10399,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C520" s="3" t="s">
         <v>1072</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>1073</v>
       </c>
       <c r="D520" s="3"/>
     </row>
@@ -10402,13 +10411,13 @@
         <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C521" s="3" t="s">
+      <c r="D521" s="3" t="s">
         <v>1075</v>
-      </c>
-      <c r="D521" s="3" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -10416,10 +10425,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C522" s="3" t="s">
         <v>1077</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>1078</v>
       </c>
       <c r="D522" s="3"/>
     </row>
@@ -10428,10 +10437,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C523" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>1080</v>
       </c>
       <c r="D523" s="3"/>
     </row>
@@ -10440,10 +10449,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C524" s="3" t="s">
         <v>1081</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>1082</v>
       </c>
       <c r="D524" s="3"/>
     </row>
@@ -10452,10 +10461,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C525" s="3" t="s">
         <v>1083</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>1084</v>
       </c>
       <c r="D525" s="3"/>
     </row>
@@ -10464,10 +10473,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C526" s="3" t="s">
         <v>1085</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>1086</v>
       </c>
       <c r="D526" s="3"/>
     </row>
@@ -10476,10 +10485,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C527" s="3" t="s">
         <v>1087</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>1088</v>
       </c>
       <c r="D527" s="3"/>
     </row>
@@ -10488,10 +10497,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C528" s="3" t="s">
         <v>1089</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>1090</v>
       </c>
       <c r="D528" s="3"/>
     </row>
@@ -10500,10 +10509,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D529" s="3"/>
     </row>
@@ -10512,10 +10521,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C530" s="3" t="s">
         <v>1093</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>1094</v>
       </c>
       <c r="D530" s="3"/>
     </row>
@@ -10524,10 +10533,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C531" s="3" t="s">
         <v>1095</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>1096</v>
       </c>
       <c r="D531" s="3"/>
     </row>
@@ -10536,10 +10545,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C532" s="3" t="s">
         <v>1097</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>1098</v>
       </c>
       <c r="D532" s="3"/>
     </row>
@@ -10548,10 +10557,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C533" s="3" t="s">
         <v>1099</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>1100</v>
       </c>
       <c r="D533" s="3"/>
     </row>
@@ -10560,10 +10569,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C534" s="3" t="s">
         <v>1101</v>
-      </c>
-      <c r="C534" s="3" t="s">
-        <v>1102</v>
       </c>
       <c r="D534" s="3"/>
     </row>
@@ -10572,10 +10581,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C535" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>1104</v>
       </c>
       <c r="D535" s="3"/>
     </row>
@@ -10584,10 +10593,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C536" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>1106</v>
       </c>
       <c r="D536" s="3"/>
     </row>
@@ -10596,7 +10605,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C537" s="3" t="s">
         <v>133</v>
@@ -10609,10 +10618,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C538" s="3" t="s">
         <v>1108</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>1109</v>
       </c>
       <c r="D538" s="3"/>
     </row>
@@ -10621,10 +10630,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C539" s="3" t="s">
         <v>1110</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>1111</v>
       </c>
       <c r="D539" s="3"/>
     </row>
@@ -10633,10 +10642,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C540" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>1113</v>
       </c>
       <c r="D540" s="3"/>
     </row>
@@ -10645,10 +10654,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C541" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="D541" s="3"/>
     </row>
@@ -10657,10 +10666,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C542" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>1117</v>
       </c>
       <c r="D542" s="3"/>
     </row>
@@ -10669,10 +10678,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C543" s="3" t="s">
         <v>1118</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>1119</v>
       </c>
       <c r="D543" s="3"/>
     </row>
@@ -10681,10 +10690,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C544" s="3" t="s">
         <v>1120</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>1121</v>
       </c>
       <c r="D544" s="3"/>
     </row>
@@ -10693,10 +10702,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C545" s="3" t="s">
         <v>1122</v>
-      </c>
-      <c r="C545" s="3" t="s">
-        <v>1123</v>
       </c>
       <c r="D545" s="3"/>
     </row>
@@ -10705,10 +10714,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C546" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="C546" s="3" t="s">
-        <v>1125</v>
       </c>
       <c r="D546" s="3"/>
     </row>
@@ -10717,10 +10726,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C547" s="3" t="s">
         <v>1126</v>
-      </c>
-      <c r="C547" s="3" t="s">
-        <v>1127</v>
       </c>
       <c r="D547" s="3"/>
     </row>
@@ -10729,10 +10738,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C548" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="D548" s="3"/>
     </row>
@@ -10741,10 +10750,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C549" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="D549" s="3"/>
     </row>
@@ -10753,10 +10762,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C550" s="3" t="s">
         <v>1132</v>
-      </c>
-      <c r="C550" s="3" t="s">
-        <v>1133</v>
       </c>
       <c r="D550" s="3"/>
     </row>
@@ -10765,10 +10774,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C551" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="C551" s="3" t="s">
-        <v>1135</v>
       </c>
       <c r="D551" s="3"/>
     </row>
@@ -10777,10 +10786,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C552" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="D552" s="3"/>
     </row>
@@ -10789,10 +10798,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C553" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>1139</v>
       </c>
       <c r="D553" s="3"/>
     </row>
@@ -10801,10 +10810,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C554" s="3" t="s">
         <v>1140</v>
-      </c>
-      <c r="C554" s="3" t="s">
-        <v>1141</v>
       </c>
       <c r="D554" s="3"/>
     </row>
@@ -10813,10 +10822,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C555" s="3" t="s">
         <v>1142</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>1143</v>
       </c>
       <c r="D555" s="3"/>
     </row>
@@ -10825,10 +10834,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C556" s="3" t="s">
         <v>1144</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>1145</v>
       </c>
       <c r="D556" s="3"/>
     </row>
@@ -10837,10 +10846,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C557" s="3" t="s">
         <v>1146</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>1147</v>
       </c>
       <c r="D557" s="3"/>
     </row>
@@ -10849,10 +10858,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D558" s="3"/>
     </row>
@@ -10861,10 +10870,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C559" s="3" t="s">
         <v>1149</v>
-      </c>
-      <c r="C559" s="3" t="s">
-        <v>1150</v>
       </c>
       <c r="D559" s="3"/>
     </row>
@@ -10873,10 +10882,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C560" s="3" t="s">
         <v>1151</v>
-      </c>
-      <c r="C560" s="3" t="s">
-        <v>1152</v>
       </c>
       <c r="D560" s="3"/>
     </row>
@@ -10885,10 +10894,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C561" s="3" t="s">
         <v>1153</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>1154</v>
       </c>
       <c r="D561" s="3"/>
     </row>
@@ -10897,10 +10906,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C562" s="3" t="s">
         <v>1155</v>
-      </c>
-      <c r="C562" s="3" t="s">
-        <v>1156</v>
       </c>
       <c r="D562" s="3"/>
     </row>
@@ -10909,10 +10918,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C563" s="3" t="s">
         <v>1157</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>1158</v>
       </c>
       <c r="D563" s="3"/>
     </row>
@@ -10921,10 +10930,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C564" s="3" t="s">
         <v>1159</v>
-      </c>
-      <c r="C564" s="3" t="s">
-        <v>1160</v>
       </c>
       <c r="D564" s="3"/>
     </row>
@@ -10932,16 +10941,24 @@
       <c r="A565" s="1">
         <v>564</v>
       </c>
-      <c r="B565" s="3"/>
-      <c r="C565" s="3"/>
+      <c r="B565" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="D565" s="3"/>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>565</v>
       </c>
-      <c r="B566" s="3"/>
-      <c r="C566" s="3"/>
+      <c r="B566" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>1162</v>
+      </c>
       <c r="D566" s="3"/>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Programming\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C960CA-4CA4-4462-B7DE-DCAEDCBDC17D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1176">
   <si>
     <t>STT</t>
   </si>
@@ -3581,18 +3587,18 @@
   <si>
     <t xml:space="preserve">phụ kiện </t>
   </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>pháo sáng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3605,150 +3611,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="13.5"/>
@@ -3764,201 +3626,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3968,370 +3644,80 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="13"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
-      <alignment wrapText="true"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="13"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
-      <alignment wrapText="true"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="13"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
-      <alignment wrapText="true"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="13"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
-      <alignment wrapText="true"/>
+      <alignment wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4339,30 +3725,30 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:D601" totalsRowShown="0">
-  <autoFilter ref="B1:D601"/>
-  <sortState ref="B1:D601">
-    <sortCondition ref="B2:B468"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="B1:D601" totalsRowShown="0">
+  <autoFilter ref="B1:D601" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Vocabulary" dataDxfId="0"/>
-    <tableColumn id="2" name="Dịch" dataDxfId="1"/>
-    <tableColumn id="3" name="Đọc" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vocabulary" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dịch" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Đọc" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:A601" totalsRowShown="0">
-  <autoFilter ref="A1:A601"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table8" displayName="Table8" ref="A1:A601" totalsRowShown="0">
+  <autoFilter ref="A1:A601" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="STT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4486,7 +3872,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -4510,9 +3896,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -4536,7 +3922,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -4589,7 +3975,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -4614,33 +4000,33 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="B572" sqref="B572"/>
+      <selection activeCell="C578" sqref="C578"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="6.70833333333333" style="1" customWidth="true"/>
-    <col min="2" max="2" width="50.5666666666667" style="1" customWidth="true"/>
-    <col min="3" max="3" width="62.2833333333333" style="1" customWidth="true"/>
-    <col min="4" max="4" width="65.7083333333333" style="1" customWidth="true"/>
-    <col min="5" max="6" width="9.14166666666667" style="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="true"/>
-    <col min="8" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4657,7 +4043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4668,7 +4054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4679,7 +4065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4690,7 +4076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4701,7 +4087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4712,7 +4098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4723,7 +4109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4734,7 +4120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4745,7 +4131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4756,7 +4142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4767,7 +4153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4778,7 +4164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4789,7 +4175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4800,7 +4186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4811,7 +4197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="34.5" spans="1:3">
+    <row r="16" spans="1:4" ht="34.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4822,7 +4208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4833,7 +4219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4844,7 +4230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4855,7 +4241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4866,7 +4252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4877,7 +4263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4888,7 +4274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4899,7 +4285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4910,7 +4296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4921,7 +4307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4932,7 +4318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4957,7 +4343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4968,7 +4354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4979,7 +4365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4990,7 +4376,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5015,7 +4401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5026,7 +4412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5037,7 +4423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5048,7 +4434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5059,7 +4445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5070,7 +4456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5081,7 +4467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5092,7 +4478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5103,7 +4489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5114,7 +4500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5125,7 +4511,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5136,7 +4522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5147,7 +4533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5158,7 +4544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5169,7 +4555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5180,7 +4566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5191,7 +4577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5202,7 +4588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5213,7 +4599,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5238,7 +4624,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5263,7 +4649,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5274,7 +4660,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5285,7 +4671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5296,7 +4682,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5307,7 +4693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5318,7 +4704,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5329,7 +4715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5340,7 +4726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5351,7 +4737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5362,7 +4748,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5373,7 +4759,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5384,7 +4770,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5409,7 +4795,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5420,7 +4806,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5445,7 +4831,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5456,7 +4842,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5467,7 +4853,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5478,7 +4864,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5489,7 +4875,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5500,7 +4886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5511,7 +4897,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5522,7 +4908,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5533,7 +4919,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5544,7 +4930,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5555,7 +4941,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5566,7 +4952,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5591,7 +4977,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5602,7 +4988,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5613,7 +4999,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5624,7 +5010,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5635,7 +5021,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5646,7 +5032,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5657,7 +5043,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5682,7 +5068,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5693,7 +5079,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5704,7 +5090,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5715,7 +5101,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5726,7 +5112,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5737,7 +5123,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5748,7 +5134,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5759,7 +5145,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5770,7 +5156,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5781,7 +5167,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5792,7 +5178,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5831,7 +5217,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5856,7 +5242,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5867,7 +5253,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5878,7 +5264,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5889,7 +5275,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5900,7 +5286,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5911,7 +5297,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5922,7 +5308,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5933,7 +5319,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5944,7 +5330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5969,7 +5355,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5980,7 +5366,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5991,7 +5377,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6002,7 +5388,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6013,7 +5399,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6024,7 +5410,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6035,7 +5421,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6046,7 +5432,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6057,7 +5443,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6068,7 +5454,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6079,7 +5465,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6090,7 +5476,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6101,7 +5487,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6112,7 +5498,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6123,7 +5509,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6134,7 +5520,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6145,7 +5531,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6156,7 +5542,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6167,7 +5553,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6178,7 +5564,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6189,7 +5575,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6200,7 +5586,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6225,7 +5611,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6236,7 +5622,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6247,7 +5633,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6258,7 +5644,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6445,7 +5831,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6456,7 +5842,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6467,7 +5853,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6478,7 +5864,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6489,7 +5875,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6500,7 +5886,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6511,7 +5897,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6522,7 +5908,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -6533,7 +5919,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6558,7 +5944,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6569,7 +5955,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6580,7 +5966,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6591,7 +5977,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6602,7 +5988,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6613,7 +5999,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6638,7 +6024,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -6649,7 +6035,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -6660,7 +6046,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -6671,7 +6057,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -6682,7 +6068,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -6693,7 +6079,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -6704,7 +6090,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -6729,7 +6115,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -6740,7 +6126,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -6751,7 +6137,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -6762,7 +6148,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -6773,7 +6159,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -6784,7 +6170,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -6823,7 +6209,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -6834,7 +6220,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -6845,7 +6231,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -6856,7 +6242,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -6867,7 +6253,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -6878,7 +6264,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -6889,7 +6275,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -6900,7 +6286,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -6911,7 +6297,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -6922,7 +6308,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -6933,7 +6319,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -6944,7 +6330,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -6955,7 +6341,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -6980,7 +6366,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -6991,7 +6377,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -7002,7 +6388,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -7013,7 +6399,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -7024,7 +6410,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -7035,7 +6421,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -7046,7 +6432,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -7057,7 +6443,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -7068,7 +6454,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -7079,7 +6465,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -7090,7 +6476,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -7101,7 +6487,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -7126,7 +6512,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -7137,7 +6523,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -7148,7 +6534,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:4">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -7159,7 +6545,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:4">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -7170,7 +6556,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="225" ht="34.5" spans="1:3">
+    <row r="225" spans="1:4" ht="34.5">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -7181,7 +6567,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -7192,7 +6578,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -7217,7 +6603,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -7228,7 +6614,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:4">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -7239,7 +6625,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -7264,7 +6650,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -7275,7 +6661,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -7286,7 +6672,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:4">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -7297,7 +6683,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:4">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -7308,7 +6694,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:4">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -7319,7 +6705,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -7330,7 +6716,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:4">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -7341,7 +6727,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:4">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -7352,7 +6738,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="241" ht="51.75" spans="1:3">
+    <row r="241" spans="1:4" ht="51.75">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -7363,7 +6749,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -7374,7 +6760,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -7385,7 +6771,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -7396,7 +6782,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -7407,7 +6793,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:4">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -7418,7 +6804,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -7429,7 +6815,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -7440,7 +6826,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:4">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -7451,7 +6837,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -7462,7 +6848,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:4">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -7473,7 +6859,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:4">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -7484,7 +6870,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:4">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -7495,7 +6881,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -7520,7 +6906,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -7545,7 +6931,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -7556,7 +6942,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:4">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -7567,7 +6953,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:4">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -7578,7 +6964,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:4">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -7589,7 +6975,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -7600,7 +6986,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -7611,7 +6997,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:4">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -7622,7 +7008,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:4">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -7633,7 +7019,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:4">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -7644,7 +7030,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:4">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -7655,7 +7041,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:4">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -7666,7 +7052,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:4">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -7677,7 +7063,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:4">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -7688,7 +7074,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:4">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -7699,7 +7085,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:4">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -7710,7 +7096,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:4">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -7721,7 +7107,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:4">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -7732,7 +7118,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -7743,7 +7129,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:4">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -7754,7 +7140,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:4">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -7765,7 +7151,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:4">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -7776,7 +7162,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:4">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -7787,7 +7173,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:4">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -7798,7 +7184,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:4">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -7809,7 +7195,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -7820,7 +7206,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:4">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -7845,7 +7231,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:4">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -7870,7 +7256,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:4">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -7881,7 +7267,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -7892,7 +7278,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:4">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -7903,7 +7289,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:4">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -7914,7 +7300,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -7925,7 +7311,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -7936,7 +7322,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -7947,7 +7333,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -7972,7 +7358,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4" ht="34.5">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -7983,7 +7369,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:4">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -7994,7 +7380,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:4">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -8005,7 +7391,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:4">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -8030,7 +7416,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:4">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -8041,7 +7427,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:4">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -8052,7 +7438,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:4">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -8063,7 +7449,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:4">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -8074,7 +7460,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:4">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -8085,7 +7471,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:4">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -8096,7 +7482,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:4">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -8107,7 +7493,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:4">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -8132,7 +7518,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:4">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -8143,7 +7529,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:4">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -8154,7 +7540,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:4">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -8165,7 +7551,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:4">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -8176,7 +7562,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:4">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -8187,7 +7573,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:4">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -8198,7 +7584,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:4">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -8209,7 +7595,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:4">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -8220,7 +7606,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:4">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -8231,7 +7617,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:4">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -8242,7 +7628,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:4">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -8253,7 +7639,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:4">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -8264,7 +7650,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -8275,7 +7661,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:4">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -8286,7 +7672,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:4">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -8297,7 +7683,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:4">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -8308,7 +7694,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:4">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -8319,7 +7705,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:4">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -8330,7 +7716,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:4">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -8341,7 +7727,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:4">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -8352,7 +7738,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:4">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -8377,7 +7763,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:4">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -8388,7 +7774,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:4">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -8399,7 +7785,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:4">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -8410,7 +7796,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:4">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -8421,7 +7807,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:4">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -8432,7 +7818,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:4">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -8457,7 +7843,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:4">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -8468,7 +7854,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:4">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -8479,7 +7865,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:4">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -8504,7 +7890,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:4">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -8515,7 +7901,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:4">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -8526,7 +7912,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:4">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -8537,7 +7923,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:4">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -8548,7 +7934,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:4">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -8573,7 +7959,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:4">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -8584,7 +7970,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:4">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -8609,7 +7995,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:4">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -8620,7 +8006,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:4">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -8631,7 +8017,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:4">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -8642,7 +8028,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:4">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -8653,7 +8039,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:4">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -8664,7 +8050,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:4">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -8675,7 +8061,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:4">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -8686,7 +8072,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:4">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -8697,7 +8083,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:4">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -8708,7 +8094,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:4">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -8719,7 +8105,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:4">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -8744,7 +8130,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:4">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -8755,7 +8141,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:4">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -8766,7 +8152,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:4">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -8777,7 +8163,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:4">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -8788,7 +8174,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:4">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -8799,7 +8185,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:4">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -8810,7 +8196,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:4">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -8835,7 +8221,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:4">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -8860,7 +8246,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:4">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -8871,7 +8257,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:4">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -8882,7 +8268,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:4">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -8893,7 +8279,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:4">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -8932,7 +8318,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:4">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -8943,7 +8329,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:4">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -8954,7 +8340,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:4">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -8965,7 +8351,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:4">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -8976,7 +8362,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:4">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -8987,7 +8373,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:4">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -8998,7 +8384,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:4">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -9009,7 +8395,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:4">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -9020,7 +8406,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:4">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -9045,7 +8431,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:4">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -9056,7 +8442,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:4">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -9067,7 +8453,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:4">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -9078,7 +8464,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:4">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -9089,7 +8475,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:4">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -9114,7 +8500,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:4">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -9125,7 +8511,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:4">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -9136,7 +8522,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:4">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -9147,7 +8533,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:4">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -9158,7 +8544,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:4">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -9169,7 +8555,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:4">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -9180,7 +8566,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:4">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -9191,7 +8577,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:4">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -9202,7 +8588,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:4">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -9213,7 +8599,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:4">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -9224,7 +8610,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:4">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -9235,7 +8621,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:4">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -9246,7 +8632,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:4">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -9257,7 +8643,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:4">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -9268,7 +8654,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:4">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -9293,7 +8679,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:4">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -9304,7 +8690,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:4">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -9315,7 +8701,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:4">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -9326,7 +8712,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:4">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -9337,7 +8723,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:4">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -9348,7 +8734,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:4">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -9359,7 +8745,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:4">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -9370,7 +8756,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:4">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -9381,7 +8767,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:4">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -9392,7 +8778,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:4">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -9403,7 +8789,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:4">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -9414,7 +8800,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:4">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -9439,7 +8825,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:4">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -9450,7 +8836,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:4">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -9475,7 +8861,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:4">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -9486,7 +8872,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:4">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -9497,7 +8883,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:4">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -9508,7 +8894,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:4">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -9519,7 +8905,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:4">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -9530,7 +8916,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:4">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -9541,7 +8927,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:4">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -9552,7 +8938,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:4">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -9563,7 +8949,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:4">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -9574,7 +8960,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:4">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -9585,7 +8971,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:4">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -9596,7 +8982,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:4">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -9607,7 +8993,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:4">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -9618,7 +9004,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:4">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -9643,7 +9029,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:4">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -9654,7 +9040,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:4">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -9665,7 +9051,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:4">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -9676,7 +9062,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:4">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -9687,7 +9073,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:4">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -9698,7 +9084,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:4">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -9709,7 +9095,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:4">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -9734,7 +9120,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:4">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -9745,7 +9131,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:4">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -9756,7 +9142,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:4">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -9767,7 +9153,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:4">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -9778,7 +9164,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:4">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -9789,7 +9175,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:4">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -9800,7 +9186,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:4">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -9811,7 +9197,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:4">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -9822,7 +9208,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:4">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -9833,7 +9219,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:4">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -9844,7 +9230,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:4">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -9855,7 +9241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:4">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -9866,7 +9252,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:4">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -9877,7 +9263,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:4">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -9888,7 +9274,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:4">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -9899,7 +9285,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:4">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -9921,7 +9307,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:4">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -9932,7 +9318,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:4">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -9943,7 +9329,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:4">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -9954,7 +9340,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:4">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -9965,7 +9351,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:4">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -9976,7 +9362,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:4">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -9987,7 +9373,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:4">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -9998,7 +9384,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:4">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -10009,7 +9395,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:4">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -10020,7 +9406,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:4">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -10031,7 +9417,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:4">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -10042,7 +9428,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:4">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -10053,7 +9439,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:4">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -10416,7 +9802,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -10427,7 +9813,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -10438,7 +9824,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -10449,7 +9835,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -10460,7 +9846,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -10471,7 +9857,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -10482,7 +9868,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -10493,7 +9879,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -10518,7 +9904,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -10529,7 +9915,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -10540,7 +9926,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -10551,7 +9937,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:4">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -10562,7 +9948,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:4">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -10573,7 +9959,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:4">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -10584,7 +9970,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:4">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -10595,7 +9981,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:8">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -10606,7 +9992,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:8">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -10617,7 +10003,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:8">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -10628,7 +10014,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:8">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -10639,7 +10025,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:8">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -10650,7 +10036,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:8">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -10661,7 +10047,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:8">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -10672,7 +10058,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:8">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -10695,7 +10081,7 @@
       </c>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:8">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -10706,7 +10092,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:8">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -10717,7 +10103,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:8">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -10728,7 +10114,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:8">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -10739,7 +10125,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:8">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -10750,7 +10136,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:8">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -10761,7 +10147,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:8">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -11069,27 +10455,33 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" spans="1:3">
       <c r="A572" s="1">
         <v>571</v>
       </c>
-    </row>
-    <row r="573" spans="1:1">
+      <c r="B572" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
       <c r="A573" s="1">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" spans="1:3">
       <c r="A574" s="1">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" spans="1:3">
       <c r="A575" s="1">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" spans="1:3">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -11221,14 +10613,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B302" r:id="rId3" display="Portable version"/>
+    <hyperlink ref="B302" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/document/tu_vung_tieng_anh.xlsx
+++ b/document/tu_vung_tieng_anh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Programming\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C960CA-4CA4-4462-B7DE-DCAEDCBDC17D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFCB437-1E8B-4A99-AAD3-8C86B74E1C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1178">
   <si>
     <t>STT</t>
   </si>
@@ -3592,6 +3592,12 @@
   </si>
   <si>
     <t>pháo sáng</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>đam mê</t>
   </si>
 </sst>
 </file>
@@ -4015,7 +4021,7 @@
   <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="C578" sqref="C578"/>
+      <selection activeCell="C573" sqref="C573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25"/>
@@ -10470,6 +10476,12 @@
       <c r="A573" s="1">
         <v>572</v>
       </c>
+      <c r="B573" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="1">
